--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3610580.991260395</v>
+        <v>3610228.065174918</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>238992.8148320307</v>
+        <v>238992.8148320316</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736552</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>41.91176353195286</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>123.8764605534589</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.8425701811396</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -756,7 +756,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -801,10 +801,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>148.2898866490549</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.518793999885657</v>
       </c>
       <c r="U4" t="n">
-        <v>14.5038758621203</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>101.4466151541358</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>377.1608800863962</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -987,13 +987,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>3.588139850788619</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>25.32205092963897</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>114.1716741434592</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>313.6756095539957</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>141.0598120912427</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1221,16 +1221,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>78.11832527047109</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>81.59241622186369</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>22.54853274729805</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>77.98390611024949</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.499879995623289</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747227</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.65886129508318</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774086</v>
+        <v>71.92652010774081</v>
       </c>
       <c r="T11" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V11" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>227.481577887954</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X11" t="n">
-        <v>264.7796735655129</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1762713617117</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
         <v>216.3098444776729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932726</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472779</v>
+        <v>54.48964433472774</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230613</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808562</v>
+        <v>37.05875858808558</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52568291627193</v>
+        <v>37.52568291627189</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563761973</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031019</v>
+        <v>44.34875326031015</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513949</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355685</v>
+        <v>34.5963980635568</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214055</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1588,13 +1588,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W13" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X13" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.6729386146303</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>264.684255572312</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>255.66555961684</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
-        <v>296.5795132747227</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721452</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92652010774081</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548094</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327663</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655129</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>78.93256311429481</v>
+        <v>72.81556728089726</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>172.2327615101707</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
         <v>216.3098444776729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932732</v>
+        <v>68.28964948932726</v>
       </c>
       <c r="C16" t="n">
-        <v>54.4896443347278</v>
+        <v>54.48964433472774</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230619</v>
+        <v>38.11100873230613</v>
       </c>
       <c r="E16" t="n">
-        <v>37.05875858808564</v>
+        <v>37.05875858808558</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52568291627195</v>
+        <v>37.52568291627189</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761978</v>
+        <v>53.80038563761973</v>
       </c>
       <c r="H16" t="n">
-        <v>44.3487532603102</v>
+        <v>44.34875326031015</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513955</v>
+        <v>29.33084844513949</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355686</v>
+        <v>34.5963980635568</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214061</v>
+        <v>98.14249946214055</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1825,13 +1825,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W16" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y16" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1844,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C17" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D17" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E17" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F17" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G17" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H17" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I17" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T17" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U17" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V17" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W17" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X17" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y17" t="n">
         <v>223.4773717274634</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C19" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T19" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U19" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V19" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W19" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X19" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133627</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2807,7 +2807,7 @@
         <v>285.1559963246098</v>
       </c>
       <c r="H29" t="n">
-        <v>202.7061113029197</v>
+        <v>202.7061113029185</v>
       </c>
       <c r="I29" t="n">
         <v>44.30207644754785</v>
@@ -2886,7 +2886,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326558</v>
       </c>
       <c r="I30" t="n">
         <v>67.69846245683961</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.0186241529801</v>
+        <v>253.01862415298</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0299411106618</v>
+        <v>241.0299411106617</v>
       </c>
       <c r="D32" t="n">
-        <v>232.0112451551898</v>
+        <v>232.0112451551897</v>
       </c>
       <c r="E32" t="n">
-        <v>253.7533827250953</v>
+        <v>253.7533827250952</v>
       </c>
       <c r="F32" t="n">
-        <v>272.9251988130725</v>
+        <v>272.9251988130724</v>
       </c>
       <c r="G32" t="n">
-        <v>274.858466710495</v>
+        <v>274.8584667104949</v>
       </c>
       <c r="H32" t="n">
-        <v>192.408581688805</v>
+        <v>192.4085816888048</v>
       </c>
       <c r="I32" t="n">
-        <v>34.0045468334331</v>
+        <v>34.00454683343295</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.27220564609073</v>
+        <v>48.27220564609058</v>
       </c>
       <c r="T32" t="n">
-        <v>85.03087683644009</v>
+        <v>85.03087683643994</v>
       </c>
       <c r="U32" t="n">
-        <v>115.252002953287</v>
+        <v>115.2520029532869</v>
       </c>
       <c r="V32" t="n">
-        <v>196.5250013931592</v>
+        <v>196.5250013931591</v>
       </c>
       <c r="W32" t="n">
-        <v>221.8251008711161</v>
+        <v>221.825100871116</v>
       </c>
       <c r="X32" t="n">
-        <v>241.1253591038627</v>
+        <v>241.1253591038626</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.5219569000615</v>
+        <v>252.5219569000614</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841208</v>
       </c>
       <c r="G33" t="n">
         <v>127.4412149769483</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.63533502767717</v>
+        <v>44.63533502767703</v>
       </c>
       <c r="C34" t="n">
-        <v>30.83532987307765</v>
+        <v>30.83532987307751</v>
       </c>
       <c r="D34" t="n">
-        <v>14.45669427065604</v>
+        <v>14.4566942706559</v>
       </c>
       <c r="E34" t="n">
-        <v>13.40444412643549</v>
+        <v>13.40444412643535</v>
       </c>
       <c r="F34" t="n">
-        <v>13.8713684546218</v>
+        <v>13.87136845462166</v>
       </c>
       <c r="G34" t="n">
-        <v>30.14607117596964</v>
+        <v>30.1460711759695</v>
       </c>
       <c r="H34" t="n">
-        <v>20.69443879866006</v>
+        <v>20.69443879865992</v>
       </c>
       <c r="I34" t="n">
-        <v>5.676533983489406</v>
+        <v>5.676533983489264</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.94208360190672</v>
+        <v>10.94208360190657</v>
       </c>
       <c r="S34" t="n">
-        <v>74.48818500049046</v>
+        <v>74.48818500049032</v>
       </c>
       <c r="T34" t="n">
-        <v>93.7626836826191</v>
+        <v>93.76268368261896</v>
       </c>
       <c r="U34" t="n">
-        <v>147.2338571459323</v>
+        <v>147.2338571459321</v>
       </c>
       <c r="V34" t="n">
-        <v>121.0434714273028</v>
+        <v>121.0434714273026</v>
       </c>
       <c r="W34" t="n">
-        <v>146.210357497916</v>
+        <v>146.2103574979159</v>
       </c>
       <c r="X34" t="n">
-        <v>91.85545949371914</v>
+        <v>91.855459493719</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.73032724978682</v>
+        <v>82.73032724978668</v>
       </c>
     </row>
     <row r="35">
@@ -3351,13 +3351,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581942</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>136.7060008318836</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
         <v>186.7982527956746</v>
@@ -3740,7 +3740,7 @@
         <v>255.8299181189404</v>
       </c>
       <c r="C41" t="n">
-        <v>243.8412350766221</v>
+        <v>243.8412350766222</v>
       </c>
       <c r="D41" t="n">
         <v>234.8225391211501</v>
@@ -3749,16 +3749,16 @@
         <v>256.5646766910556</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>112.3839071765059</v>
       </c>
       <c r="G41" t="n">
-        <v>75.56806637711276</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>195.2198756547652</v>
+        <v>195.2198756547653</v>
       </c>
       <c r="I41" t="n">
-        <v>36.81584079939338</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.08349961205101</v>
+        <v>51.08349961205104</v>
       </c>
       <c r="T41" t="n">
-        <v>87.84217080240037</v>
+        <v>87.8421708024004</v>
       </c>
       <c r="U41" t="n">
-        <v>118.0632969192473</v>
+        <v>118.0632969192474</v>
       </c>
       <c r="V41" t="n">
         <v>199.3362953591195</v>
@@ -3803,7 +3803,7 @@
         <v>224.6363948370764</v>
       </c>
       <c r="X41" t="n">
-        <v>243.936653069823</v>
+        <v>243.9366530698231</v>
       </c>
       <c r="Y41" t="n">
         <v>255.3332508660218</v>
@@ -3834,7 +3834,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>84.37298759326521</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I42" t="n">
         <v>67.69846245683961</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.44662899363746</v>
+        <v>47.44662899363749</v>
       </c>
       <c r="C43" t="n">
-        <v>33.64662383903794</v>
+        <v>33.64662383903797</v>
       </c>
       <c r="D43" t="n">
-        <v>17.26798823661633</v>
+        <v>17.26798823661636</v>
       </c>
       <c r="E43" t="n">
-        <v>16.21573809239578</v>
+        <v>16.21573809239581</v>
       </c>
       <c r="F43" t="n">
-        <v>16.68266242058209</v>
+        <v>16.68266242058212</v>
       </c>
       <c r="G43" t="n">
-        <v>32.95736514192993</v>
+        <v>32.95736514192996</v>
       </c>
       <c r="H43" t="n">
-        <v>23.50573276462035</v>
+        <v>23.50573276462038</v>
       </c>
       <c r="I43" t="n">
-        <v>8.487827949449695</v>
+        <v>8.487827949449724</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>13.75337756786701</v>
+        <v>13.75337756786703</v>
       </c>
       <c r="S43" t="n">
-        <v>77.29947896645075</v>
+        <v>77.29947896645078</v>
       </c>
       <c r="T43" t="n">
-        <v>96.57397764857939</v>
+        <v>96.57397764857942</v>
       </c>
       <c r="U43" t="n">
         <v>150.0451511118926</v>
@@ -3961,10 +3961,10 @@
         <v>149.0216514638763</v>
       </c>
       <c r="X43" t="n">
-        <v>94.66675345967943</v>
+        <v>94.66675345967946</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.54162121574711</v>
+        <v>85.54162121574714</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>255.8299181189404</v>
       </c>
       <c r="C44" t="n">
-        <v>243.8412350766221</v>
+        <v>243.8412350766222</v>
       </c>
       <c r="D44" t="n">
-        <v>32.7208448218076</v>
+        <v>234.8225391211501</v>
       </c>
       <c r="E44" t="n">
-        <v>256.5646766910556</v>
+        <v>93.21209108852851</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>275.7364927790328</v>
       </c>
       <c r="G44" t="n">
-        <v>277.6697606764553</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>195.2198756547652</v>
+        <v>195.2198756547653</v>
       </c>
       <c r="I44" t="n">
-        <v>36.81584079939338</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.08349961205101</v>
+        <v>51.08349961205104</v>
       </c>
       <c r="T44" t="n">
-        <v>87.84217080240037</v>
+        <v>87.8421708024004</v>
       </c>
       <c r="U44" t="n">
-        <v>118.0632969192473</v>
+        <v>118.0632969192474</v>
       </c>
       <c r="V44" t="n">
         <v>199.3362953591195</v>
@@ -4040,7 +4040,7 @@
         <v>224.6363948370764</v>
       </c>
       <c r="X44" t="n">
-        <v>243.936653069823</v>
+        <v>243.9366530698231</v>
       </c>
       <c r="Y44" t="n">
         <v>255.3332508660218</v>
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.44662899363746</v>
+        <v>47.44662899363749</v>
       </c>
       <c r="C46" t="n">
-        <v>33.64662383903794</v>
+        <v>33.64662383903797</v>
       </c>
       <c r="D46" t="n">
-        <v>17.26798823661633</v>
+        <v>17.26798823661636</v>
       </c>
       <c r="E46" t="n">
-        <v>16.21573809239578</v>
+        <v>16.21573809239581</v>
       </c>
       <c r="F46" t="n">
-        <v>16.68266242058209</v>
+        <v>16.68266242058212</v>
       </c>
       <c r="G46" t="n">
-        <v>32.95736514192993</v>
+        <v>32.95736514192996</v>
       </c>
       <c r="H46" t="n">
-        <v>23.50573276462035</v>
+        <v>23.50573276462038</v>
       </c>
       <c r="I46" t="n">
-        <v>8.487827949449695</v>
+        <v>8.487827949449724</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>13.75337756786701</v>
+        <v>13.75337756786703</v>
       </c>
       <c r="S46" t="n">
-        <v>77.29947896645075</v>
+        <v>77.29947896645078</v>
       </c>
       <c r="T46" t="n">
-        <v>96.57397764857939</v>
+        <v>96.57397764857942</v>
       </c>
       <c r="U46" t="n">
         <v>150.0451511118926</v>
@@ -4198,10 +4198,10 @@
         <v>149.0216514638763</v>
       </c>
       <c r="X46" t="n">
-        <v>94.66675345967943</v>
+        <v>94.66675345967946</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.54162121574711</v>
+        <v>85.54162121574714</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1851.367196135983</v>
+        <v>103.3495934863764</v>
       </c>
       <c r="C2" t="n">
-        <v>1851.367196135983</v>
+        <v>103.3495934863764</v>
       </c>
       <c r="D2" t="n">
-        <v>1478.543231363207</v>
+        <v>103.3495934863764</v>
       </c>
       <c r="E2" t="n">
-        <v>1083.757511469314</v>
+        <v>61.01447880763615</v>
       </c>
       <c r="F2" t="n">
-        <v>669.6063207794841</v>
+        <v>50.90369215821053</v>
       </c>
       <c r="G2" t="n">
-        <v>544.4785828466973</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="H2" t="n">
-        <v>211.6573084440066</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="I2" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="J2" t="n">
-        <v>110.8386539256083</v>
+        <v>110.8386539256082</v>
       </c>
       <c r="K2" t="n">
-        <v>194.9558499989561</v>
+        <v>350.979025970391</v>
       </c>
       <c r="L2" t="n">
-        <v>542.8412230839024</v>
+        <v>698.8643990553372</v>
       </c>
       <c r="M2" t="n">
-        <v>936.0803893369903</v>
+        <v>936.0803893369884</v>
       </c>
       <c r="N2" t="n">
-        <v>1314.411748024706</v>
+        <v>1314.411748024704</v>
       </c>
       <c r="O2" t="n">
-        <v>1619.41633249754</v>
+        <v>1619.416332497538</v>
       </c>
       <c r="P2" t="n">
-        <v>1847.573228953593</v>
+        <v>1847.573228953591</v>
       </c>
       <c r="Q2" t="n">
-        <v>1942.00548264013</v>
+        <v>1942.005482640128</v>
       </c>
       <c r="R2" t="n">
-        <v>1851.367196135983</v>
+        <v>1851.367196135982</v>
       </c>
       <c r="S2" t="n">
-        <v>1851.367196135983</v>
+        <v>1664.138220766336</v>
       </c>
       <c r="T2" t="n">
-        <v>1851.367196135983</v>
+        <v>1439.779274497347</v>
       </c>
       <c r="U2" t="n">
-        <v>1851.367196135983</v>
+        <v>1184.893938211341</v>
       </c>
       <c r="V2" t="n">
-        <v>1851.367196135983</v>
+        <v>847.9146641072821</v>
       </c>
       <c r="W2" t="n">
-        <v>1851.367196135983</v>
+        <v>485.3797339648831</v>
       </c>
       <c r="X2" t="n">
-        <v>1851.367196135983</v>
+        <v>103.3495934863764</v>
       </c>
       <c r="Y2" t="n">
-        <v>1851.367196135983</v>
+        <v>103.3495934863764</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.4491973958014</v>
+        <v>702.7425749017789</v>
       </c>
       <c r="C3" t="n">
-        <v>756.4491973958014</v>
+        <v>541.0389021427336</v>
       </c>
       <c r="D3" t="n">
-        <v>617.6105603860135</v>
+        <v>402.2002651329457</v>
       </c>
       <c r="E3" t="n">
-        <v>470.5825504428847</v>
+        <v>402.2002651329457</v>
       </c>
       <c r="F3" t="n">
-        <v>335.888752392759</v>
+        <v>267.50646708282</v>
       </c>
       <c r="G3" t="n">
-        <v>207.1602524160436</v>
+        <v>138.7779671061045</v>
       </c>
       <c r="H3" t="n">
-        <v>107.2223949627416</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="I3" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="J3" t="n">
-        <v>99.09425618590875</v>
+        <v>99.0942561859087</v>
       </c>
       <c r="K3" t="n">
-        <v>328.5848087460974</v>
+        <v>328.5848087460973</v>
       </c>
       <c r="L3" t="n">
-        <v>694.406653916213</v>
+        <v>678.6168494575677</v>
       </c>
       <c r="M3" t="n">
-        <v>694.406653916213</v>
+        <v>1159.263206410999</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.937982794688</v>
+        <v>1639.909563364431</v>
       </c>
       <c r="O3" t="n">
-        <v>1482.137933578839</v>
+        <v>1639.909563364431</v>
       </c>
       <c r="P3" t="n">
-        <v>1784.233852854536</v>
+        <v>1942.005482640128</v>
       </c>
       <c r="Q3" t="n">
-        <v>1942.00548264013</v>
+        <v>1942.005482640128</v>
       </c>
       <c r="R3" t="n">
-        <v>1942.00548264013</v>
+        <v>1882.221213735074</v>
       </c>
       <c r="S3" t="n">
-        <v>1942.00548264013</v>
+        <v>1729.421726747814</v>
       </c>
       <c r="T3" t="n">
-        <v>1942.00548264013</v>
+        <v>1540.736622913799</v>
       </c>
       <c r="U3" t="n">
-        <v>1723.51069023844</v>
+        <v>1322.24183051211</v>
       </c>
       <c r="V3" t="n">
-        <v>1495.115067686774</v>
+        <v>1093.846207960444</v>
       </c>
       <c r="W3" t="n">
-        <v>1253.799198920084</v>
+        <v>852.5303391937535</v>
       </c>
       <c r="X3" t="n">
-        <v>1055.882210797879</v>
+        <v>702.7425749017789</v>
       </c>
       <c r="Y3" t="n">
-        <v>863.3608844474576</v>
+        <v>702.7425749017789</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="C4" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="D4" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="E4" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="F4" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="G4" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="H4" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="I4" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="J4" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="K4" t="n">
-        <v>72.44429739744601</v>
+        <v>72.44429739744598</v>
       </c>
       <c r="L4" t="n">
         <v>173.0513767977055</v>
       </c>
       <c r="M4" t="n">
-        <v>291.0448829253073</v>
+        <v>291.0448829253072</v>
       </c>
       <c r="N4" t="n">
         <v>409.4672246749076</v>
       </c>
       <c r="O4" t="n">
-        <v>507.9308711705973</v>
+        <v>507.9308711705972</v>
       </c>
       <c r="P4" t="n">
         <v>570.8993548987351</v>
       </c>
       <c r="Q4" t="n">
-        <v>570.8993548987351</v>
+        <v>532.3620135524241</v>
       </c>
       <c r="R4" t="n">
-        <v>570.8993548987351</v>
+        <v>532.3620135524241</v>
       </c>
       <c r="S4" t="n">
-        <v>570.8993548987351</v>
+        <v>532.3620135524241</v>
       </c>
       <c r="T4" t="n">
-        <v>570.8993548987351</v>
+        <v>530.8278781990042</v>
       </c>
       <c r="U4" t="n">
-        <v>556.2489752400277</v>
+        <v>530.8278781990042</v>
       </c>
       <c r="V4" t="n">
-        <v>556.2489752400277</v>
+        <v>270.0925737574268</v>
       </c>
       <c r="W4" t="n">
-        <v>270.0925737574269</v>
+        <v>270.0925737574268</v>
       </c>
       <c r="X4" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>567.5262112865612</v>
+        <v>628.6173974927333</v>
       </c>
       <c r="C5" t="n">
-        <v>567.5262112865612</v>
+        <v>628.6173974927333</v>
       </c>
       <c r="D5" t="n">
-        <v>465.0548828480402</v>
+        <v>628.6173974927333</v>
       </c>
       <c r="E5" t="n">
-        <v>465.0548828480402</v>
+        <v>233.8316775988401</v>
       </c>
       <c r="F5" t="n">
-        <v>454.9440961986146</v>
+        <v>223.7208909494145</v>
       </c>
       <c r="G5" t="n">
-        <v>38.8401096528026</v>
+        <v>211.6573084440066</v>
       </c>
       <c r="H5" t="n">
-        <v>38.8401096528026</v>
+        <v>211.6573084440066</v>
       </c>
       <c r="I5" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="J5" t="n">
-        <v>110.8386539256083</v>
+        <v>110.8386539256082</v>
       </c>
       <c r="K5" t="n">
         <v>350.979025970391</v>
       </c>
       <c r="L5" t="n">
-        <v>698.8643990553373</v>
+        <v>698.8643990553372</v>
       </c>
       <c r="M5" t="n">
-        <v>1092.103565308425</v>
+        <v>936.0803893369884</v>
       </c>
       <c r="N5" t="n">
-        <v>1470.434923996141</v>
+        <v>1314.411748024704</v>
       </c>
       <c r="O5" t="n">
-        <v>1775.439508468975</v>
+        <v>1619.416332497538</v>
       </c>
       <c r="P5" t="n">
-        <v>1847.573228953593</v>
+        <v>1847.573228953591</v>
       </c>
       <c r="Q5" t="n">
-        <v>1942.00548264013</v>
+        <v>1942.005482640128</v>
       </c>
       <c r="R5" t="n">
-        <v>1942.00548264013</v>
+        <v>1851.367196135982</v>
       </c>
       <c r="S5" t="n">
-        <v>1942.00548264013</v>
+        <v>1851.367196135982</v>
       </c>
       <c r="T5" t="n">
-        <v>1717.646536371141</v>
+        <v>1627.008249866993</v>
       </c>
       <c r="U5" t="n">
-        <v>1717.646536371141</v>
+        <v>1372.122913580987</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.646536371141</v>
+        <v>1372.122913580987</v>
       </c>
       <c r="W5" t="n">
-        <v>1355.111606228742</v>
+        <v>1009.587983438588</v>
       </c>
       <c r="X5" t="n">
-        <v>1355.111606228742</v>
+        <v>628.6173974927333</v>
       </c>
       <c r="Y5" t="n">
-        <v>961.5697508045804</v>
+        <v>628.6173974927333</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689.4865127248293</v>
+        <v>710.9319478351197</v>
       </c>
       <c r="C6" t="n">
-        <v>527.782839965784</v>
+        <v>549.2282750760744</v>
       </c>
       <c r="D6" t="n">
-        <v>388.944202955996</v>
+        <v>549.2282750760744</v>
       </c>
       <c r="E6" t="n">
-        <v>241.9161930128673</v>
+        <v>402.2002651329457</v>
       </c>
       <c r="F6" t="n">
-        <v>107.2223949627416</v>
+        <v>267.50646708282</v>
       </c>
       <c r="G6" t="n">
-        <v>107.2223949627416</v>
+        <v>138.7779671061045</v>
       </c>
       <c r="H6" t="n">
-        <v>107.2223949627416</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="I6" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="J6" t="n">
-        <v>99.09425618590875</v>
+        <v>99.0942561859087</v>
       </c>
       <c r="K6" t="n">
-        <v>328.5848087460974</v>
+        <v>328.5848087460973</v>
       </c>
       <c r="L6" t="n">
-        <v>694.406653916213</v>
+        <v>609.2916258412542</v>
       </c>
       <c r="M6" t="n">
-        <v>1089.937982794688</v>
+        <v>1089.937982794686</v>
       </c>
       <c r="N6" t="n">
-        <v>1089.937982794688</v>
+        <v>1089.937982794686</v>
       </c>
       <c r="O6" t="n">
-        <v>1482.137933578839</v>
+        <v>1482.137933578837</v>
       </c>
       <c r="P6" t="n">
-        <v>1784.233852854536</v>
+        <v>1784.233852854534</v>
       </c>
       <c r="Q6" t="n">
-        <v>1942.00548264013</v>
+        <v>1942.005482640128</v>
       </c>
       <c r="R6" t="n">
-        <v>1882.221213735076</v>
+        <v>1882.221213735074</v>
       </c>
       <c r="S6" t="n">
-        <v>1729.421726747816</v>
+        <v>1729.421726747814</v>
       </c>
       <c r="T6" t="n">
-        <v>1540.736622913801</v>
+        <v>1540.736622913799</v>
       </c>
       <c r="U6" t="n">
-        <v>1322.241830512111</v>
+        <v>1322.24183051211</v>
       </c>
       <c r="V6" t="n">
-        <v>1093.846207960445</v>
+        <v>1093.846207960444</v>
       </c>
       <c r="W6" t="n">
-        <v>852.5303391937554</v>
+        <v>1093.846207960444</v>
       </c>
       <c r="X6" t="n">
-        <v>848.9059555060901</v>
+        <v>895.9292198382381</v>
       </c>
       <c r="Y6" t="n">
-        <v>848.9059555060901</v>
+        <v>870.3513906163805</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.1650330300341</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="C7" t="n">
-        <v>154.1650330300341</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="D7" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="E7" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="F7" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="G7" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="H7" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="I7" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="J7" t="n">
-        <v>38.8401096528026</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="K7" t="n">
-        <v>72.44429739744601</v>
+        <v>72.44429739744598</v>
       </c>
       <c r="L7" t="n">
         <v>173.0513767977055</v>
       </c>
       <c r="M7" t="n">
-        <v>291.0448829253073</v>
+        <v>291.0448829253072</v>
       </c>
       <c r="N7" t="n">
         <v>409.4672246749076</v>
       </c>
       <c r="O7" t="n">
-        <v>507.9308711705973</v>
+        <v>507.9308711705972</v>
       </c>
       <c r="P7" t="n">
         <v>570.8993548987351</v>
@@ -4747,28 +4747,28 @@
         <v>570.8993548987351</v>
       </c>
       <c r="R7" t="n">
-        <v>570.8993548987351</v>
+        <v>558.1754643197246</v>
       </c>
       <c r="S7" t="n">
-        <v>570.8993548987351</v>
+        <v>558.1754643197246</v>
       </c>
       <c r="T7" t="n">
-        <v>337.7204017144139</v>
+        <v>324.9965111354035</v>
       </c>
       <c r="U7" t="n">
-        <v>337.7204017144139</v>
+        <v>324.9965111354035</v>
       </c>
       <c r="V7" t="n">
-        <v>337.7204017144139</v>
+        <v>324.9965111354035</v>
       </c>
       <c r="W7" t="n">
-        <v>337.7204017144139</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="X7" t="n">
-        <v>337.7204017144139</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="Y7" t="n">
-        <v>337.7204017144139</v>
+        <v>38.84010965280257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>841.0629940692133</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="C8" t="n">
-        <v>841.0629940692133</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="D8" t="n">
-        <v>468.2390292964369</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="E8" t="n">
-        <v>468.2390292964369</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="F8" t="n">
-        <v>54.08783860660719</v>
+        <v>386.9091130092979</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4832,22 +4832,22 @@
         <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>1913.983829690315</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>1913.983829690315</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V8" t="n">
-        <v>1597.139779635774</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="W8" t="n">
-        <v>1234.604849493375</v>
+        <v>1327.089953278928</v>
       </c>
       <c r="X8" t="n">
-        <v>1234.604849493375</v>
+        <v>1184.605294600905</v>
       </c>
       <c r="Y8" t="n">
-        <v>841.0629940692133</v>
+        <v>791.0634391767427</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>786.6432185531175</v>
+        <v>703.195773126389</v>
       </c>
       <c r="C9" t="n">
-        <v>624.9395457940723</v>
+        <v>541.4921003673437</v>
       </c>
       <c r="D9" t="n">
-        <v>486.1009087842844</v>
+        <v>402.6534633575558</v>
       </c>
       <c r="E9" t="n">
-        <v>339.0728988411556</v>
+        <v>255.625453414427</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>120.9316553643013</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4890,13 +4890,13 @@
         <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1693.889799997958</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1943.441175274367</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
         <v>1943.441175274367</v>
@@ -4911,22 +4911,22 @@
         <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1806.212467125361</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1806.212467125361</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1577.816844573695</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1336.500975807005</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X9" t="n">
-        <v>1138.583987684799</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y9" t="n">
-        <v>946.0626613343784</v>
+        <v>862.6152159076499</v>
       </c>
     </row>
     <row r="10">
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>512.7698642964792</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>512.7698642964792</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="V10" t="n">
-        <v>495.3118790135463</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="W10" t="n">
-        <v>495.3118790135463</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="X10" t="n">
-        <v>264.0594149089221</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1094.52716387151</v>
+        <v>936.0381185586323</v>
       </c>
       <c r="C11" t="n">
-        <v>827.1693299600834</v>
+        <v>668.680284647206</v>
       </c>
       <c r="D11" t="n">
-        <v>568.9212899430734</v>
+        <v>410.432244630196</v>
       </c>
       <c r="E11" t="n">
-        <v>568.9212899430734</v>
+        <v>408.9172143315866</v>
       </c>
       <c r="F11" t="n">
-        <v>269.3460240090101</v>
+        <v>109.3419483975233</v>
       </c>
       <c r="G11" t="n">
-        <v>269.3460240090101</v>
+        <v>109.3419483975233</v>
       </c>
       <c r="H11" t="n">
-        <v>51.10067436208573</v>
+        <v>109.3419483975233</v>
       </c>
       <c r="I11" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J11" t="n">
-        <v>235.395082488018</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K11" t="n">
-        <v>587.8313183859274</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L11" t="n">
-        <v>1048.012555324</v>
+        <v>823.420827617747</v>
       </c>
       <c r="M11" t="n">
-        <v>1525.647345550734</v>
+        <v>1328.955857723962</v>
       </c>
       <c r="N11" t="n">
-        <v>1903.97870423845</v>
+        <v>1791.682840385323</v>
       </c>
       <c r="O11" t="n">
-        <v>2208.983288711284</v>
+        <v>2096.687424858157</v>
       </c>
       <c r="P11" t="n">
-        <v>2437.140185167337</v>
+        <v>2324.84432131421</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.572438853874</v>
@@ -5072,19 +5072,19 @@
         <v>2372.597645977185</v>
       </c>
       <c r="U11" t="n">
-        <v>2372.597645977185</v>
+        <v>2232.288234446945</v>
       </c>
       <c r="V11" t="n">
-        <v>2150.194296628893</v>
+        <v>2009.884885098653</v>
       </c>
       <c r="W11" t="n">
-        <v>1920.414925024898</v>
+        <v>1761.925879712021</v>
       </c>
       <c r="X11" t="n">
-        <v>1652.960709302158</v>
+        <v>1494.471663989281</v>
       </c>
       <c r="Y11" t="n">
-        <v>1373.994778633763</v>
+        <v>1215.505733320885</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C12" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D12" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E12" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F12" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G12" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H12" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I12" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J12" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L12" t="n">
         <v>706.6672186254962</v>
@@ -5142,28 +5142,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S12" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V12" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W12" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X12" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="13">
@@ -5176,46 +5176,46 @@
         <v>348.7421712453797</v>
       </c>
       <c r="C13" t="n">
-        <v>293.7021264628264</v>
+        <v>293.7021264628263</v>
       </c>
       <c r="D13" t="n">
-        <v>255.2061580463555</v>
+        <v>255.2061580463554</v>
       </c>
       <c r="E13" t="n">
         <v>217.7730685634407</v>
       </c>
       <c r="F13" t="n">
-        <v>179.8683383449842</v>
+        <v>179.8683383449841</v>
       </c>
       <c r="G13" t="n">
-        <v>125.5245144686006</v>
+        <v>125.5245144686005</v>
       </c>
       <c r="H13" t="n">
-        <v>80.72779400364082</v>
+        <v>80.72779400364078</v>
       </c>
       <c r="I13" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
         <v>104.5344386772431</v>
       </c>
       <c r="K13" t="n">
-        <v>250.4344902750131</v>
+        <v>250.4344902750132</v>
       </c>
       <c r="L13" t="n">
-        <v>463.3374335283992</v>
+        <v>463.3374335283993</v>
       </c>
       <c r="M13" t="n">
-        <v>693.6268035091275</v>
+        <v>693.6268035091277</v>
       </c>
       <c r="N13" t="n">
-        <v>924.3450091118543</v>
+        <v>924.3450091118548</v>
       </c>
       <c r="O13" t="n">
         <v>1135.104519460671</v>
       </c>
       <c r="P13" t="n">
-        <v>1310.368867041935</v>
+        <v>1310.368867041936</v>
       </c>
       <c r="Q13" t="n">
         <v>1384.894282641543</v>
@@ -5230,16 +5230,16 @@
         <v>1132.211559742586</v>
       </c>
       <c r="U13" t="n">
-        <v>959.5972449874527</v>
+        <v>959.5972449874528</v>
       </c>
       <c r="V13" t="n">
-        <v>813.4378653016416</v>
+        <v>813.437865301642</v>
       </c>
       <c r="W13" t="n">
-        <v>641.8573885748076</v>
+        <v>641.8573885748074</v>
       </c>
       <c r="X13" t="n">
-        <v>525.1808492259497</v>
+        <v>525.1808492259496</v>
       </c>
       <c r="Y13" t="n">
         <v>417.7216151739931</v>
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1458.019671152758</v>
+        <v>1408.907186888256</v>
       </c>
       <c r="C14" t="n">
-        <v>1190.661837241332</v>
+        <v>1408.907186888256</v>
       </c>
       <c r="D14" t="n">
-        <v>932.4137972243216</v>
+        <v>1150.659146871246</v>
       </c>
       <c r="E14" t="n">
-        <v>652.2040020861947</v>
+        <v>870.4493517331189</v>
       </c>
       <c r="F14" t="n">
-        <v>352.6287361521314</v>
+        <v>570.8740857990556</v>
       </c>
       <c r="G14" t="n">
-        <v>51.10067436208574</v>
+        <v>269.3460240090101</v>
       </c>
       <c r="H14" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I14" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J14" t="n">
-        <v>123.0992186348914</v>
+        <v>235.395082488018</v>
       </c>
       <c r="K14" t="n">
-        <v>363.2395906796742</v>
+        <v>587.8313183859275</v>
       </c>
       <c r="L14" t="n">
-        <v>711.1249637646204</v>
+        <v>935.7166914708737</v>
       </c>
       <c r="M14" t="n">
-        <v>1104.364130017708</v>
+        <v>1328.955857723962</v>
       </c>
       <c r="N14" t="n">
-        <v>1567.09111267907</v>
+        <v>1819.583080264804</v>
       </c>
       <c r="O14" t="n">
-        <v>1984.391561005031</v>
+        <v>2124.587664737638</v>
       </c>
       <c r="P14" t="n">
-        <v>2324.84432131421</v>
+        <v>2352.744561193691</v>
       </c>
       <c r="Q14" t="n">
         <v>2531.572438853874</v>
@@ -5303,25 +5303,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S14" t="n">
-        <v>2555.033718104287</v>
+        <v>2482.380667490407</v>
       </c>
       <c r="T14" t="n">
-        <v>2555.033718104287</v>
+        <v>2372.597645977185</v>
       </c>
       <c r="U14" t="n">
-        <v>2555.033718104287</v>
+        <v>2232.288234446945</v>
       </c>
       <c r="V14" t="n">
-        <v>2332.630368755994</v>
+        <v>2009.884885098653</v>
       </c>
       <c r="W14" t="n">
-        <v>2084.671363369362</v>
+        <v>1761.925879712021</v>
       </c>
       <c r="X14" t="n">
-        <v>1817.217147646622</v>
+        <v>1761.925879712021</v>
       </c>
       <c r="Y14" t="n">
-        <v>1737.487285915011</v>
+        <v>1688.374801650508</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C15" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D15" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E15" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F15" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G15" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H15" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I15" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J15" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K15" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L15" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M15" t="n">
         <v>1191.700572135723</v>
@@ -5379,28 +5379,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S15" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T15" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U15" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V15" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W15" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X15" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y15" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>348.7421712453798</v>
+        <v>348.7421712453794</v>
       </c>
       <c r="C16" t="n">
-        <v>293.7021264628265</v>
+        <v>293.7021264628261</v>
       </c>
       <c r="D16" t="n">
-        <v>255.2061580463556</v>
+        <v>255.2061580463553</v>
       </c>
       <c r="E16" t="n">
-        <v>217.7730685634408</v>
+        <v>217.7730685634405</v>
       </c>
       <c r="F16" t="n">
-        <v>179.8683383449843</v>
+        <v>179.8683383449841</v>
       </c>
       <c r="G16" t="n">
-        <v>125.5245144686006</v>
+        <v>125.5245144686005</v>
       </c>
       <c r="H16" t="n">
-        <v>80.72779400364084</v>
+        <v>80.72779400364078</v>
       </c>
       <c r="I16" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J16" t="n">
-        <v>104.534438677243</v>
+        <v>104.5344386772431</v>
       </c>
       <c r="K16" t="n">
-        <v>250.434490275013</v>
+        <v>250.4344902750132</v>
       </c>
       <c r="L16" t="n">
-        <v>463.3374335283992</v>
+        <v>463.3374335283993</v>
       </c>
       <c r="M16" t="n">
-        <v>693.6268035091275</v>
+        <v>693.6268035091277</v>
       </c>
       <c r="N16" t="n">
-        <v>924.3450091118546</v>
+        <v>924.3450091118548</v>
       </c>
       <c r="O16" t="n">
         <v>1135.104519460671</v>
@@ -5458,28 +5458,28 @@
         <v>1384.894282641543</v>
       </c>
       <c r="R16" t="n">
-        <v>1349.948426011688</v>
+        <v>1349.948426011687</v>
       </c>
       <c r="S16" t="n">
-        <v>1250.814588171142</v>
+        <v>1250.814588171141</v>
       </c>
       <c r="T16" t="n">
-        <v>1132.211559742587</v>
+        <v>1132.211559742586</v>
       </c>
       <c r="U16" t="n">
-        <v>959.5972449874532</v>
+        <v>959.5972449874525</v>
       </c>
       <c r="V16" t="n">
-        <v>813.4378653016422</v>
+        <v>813.4378653016415</v>
       </c>
       <c r="W16" t="n">
-        <v>641.8573885748077</v>
+        <v>641.857388574807</v>
       </c>
       <c r="X16" t="n">
-        <v>525.1808492259498</v>
+        <v>525.1808492259493</v>
       </c>
       <c r="Y16" t="n">
-        <v>417.7216151739933</v>
+        <v>417.7216151739927</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C17" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D17" t="n">
-        <v>942.7443621478542</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E17" t="n">
-        <v>715.7657787614933</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F17" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G17" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H17" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I17" t="n">
         <v>51.10067436208574</v>
@@ -5522,19 +5522,19 @@
         <v>711.1249637646204</v>
       </c>
       <c r="M17" t="n">
-        <v>1104.364130017708</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N17" t="n">
-        <v>1522.87124461848</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O17" t="n">
-        <v>1992.343603582346</v>
+        <v>1903.509018979632</v>
       </c>
       <c r="P17" t="n">
-        <v>2384.968274529432</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q17" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R17" t="n">
         <v>2555.033718104287</v>
@@ -5549,16 +5549,16 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V17" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W17" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X17" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5592,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J18" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K18" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L18" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M18" t="n">
         <v>1191.700572135723</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.02211951749096</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C19" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D19" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E19" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F19" t="n">
-        <v>52.2132864867035</v>
+        <v>66.12215891288227</v>
       </c>
       <c r="G19" t="n">
-        <v>51.10067436208574</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="H19" t="n">
-        <v>56.26358779153751</v>
+        <v>73.27619169846319</v>
       </c>
       <c r="I19" t="n">
-        <v>79.39795846875508</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="J19" t="n">
-        <v>79.39795846875508</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="K19" t="n">
-        <v>113.0021462133985</v>
+        <v>111.8895340887804</v>
       </c>
       <c r="L19" t="n">
-        <v>213.609225613658</v>
+        <v>212.4966134890399</v>
       </c>
       <c r="M19" t="n">
-        <v>331.6027317412597</v>
+        <v>330.4901196166417</v>
       </c>
       <c r="N19" t="n">
-        <v>450.0250734908601</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O19" t="n">
-        <v>548.4887199865498</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P19" t="n">
-        <v>611.4572037146876</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q19" t="n">
-        <v>611.4572037146876</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R19" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S19" t="n">
-        <v>583.4760541808919</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T19" t="n">
-        <v>518.1042375041029</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U19" t="n">
-        <v>398.721134500735</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V19" t="n">
-        <v>305.7929665666899</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W19" t="n">
-        <v>187.4437015916212</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X19" t="n">
-        <v>123.9983739945292</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.77035169433856</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5750,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J20" t="n">
-        <v>123.0992186348914</v>
+        <v>238.9081644362655</v>
       </c>
       <c r="K20" t="n">
-        <v>363.2395906796742</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L20" t="n">
-        <v>711.1249637646204</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M20" t="n">
-        <v>1104.364130017708</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N20" t="n">
-        <v>1482.695488705424</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O20" t="n">
-        <v>1952.16784766929</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P20" t="n">
-        <v>2344.792518616376</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q20" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R20" t="n">
         <v>2555.033718104287</v>
@@ -5795,7 +5795,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y20" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C21" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D21" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E21" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F21" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G21" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H21" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I21" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J21" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M21" t="n">
         <v>1191.700572135723</v>
@@ -5853,28 +5853,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S21" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T21" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U21" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V21" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W21" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X21" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F22" t="n">
         <v>52.21328648670347</v>
@@ -5929,31 +5929,31 @@
         <v>583.1599196080183</v>
       </c>
       <c r="Q22" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S22" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T22" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U22" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V22" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W22" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X22" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J23" t="n">
-        <v>123.0992186348914</v>
+        <v>238.9081644362653</v>
       </c>
       <c r="K23" t="n">
-        <v>363.2395906796742</v>
+        <v>479.048536481048</v>
       </c>
       <c r="L23" t="n">
-        <v>711.1249637646204</v>
+        <v>991.4016840570266</v>
       </c>
       <c r="M23" t="n">
-        <v>1104.364130017708</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N23" t="n">
-        <v>1482.695488705424</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O23" t="n">
-        <v>1827.875829091314</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P23" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q23" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R23" t="n">
         <v>2555.033718104287</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C24" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D24" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E24" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F24" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G24" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H24" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I24" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J24" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K24" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L24" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M24" t="n">
         <v>1191.700572135723</v>
@@ -6090,28 +6090,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S24" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T24" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U24" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V24" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W24" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X24" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y24" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="25">
@@ -6127,46 +6127,46 @@
         <v>51.10067436208574</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54268635500837</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E25" t="n">
-        <v>81.02642599070934</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F25" t="n">
-        <v>96.04791054150587</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G25" t="n">
-        <v>94.93529841688814</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H25" t="n">
-        <v>94.93529841688814</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="I25" t="n">
-        <v>94.93529841688814</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="J25" t="n">
-        <v>94.93529841688814</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="K25" t="n">
-        <v>128.5394861615316</v>
+        <v>92.9715070169278</v>
       </c>
       <c r="L25" t="n">
-        <v>229.1465655617911</v>
+        <v>193.5785864171873</v>
       </c>
       <c r="M25" t="n">
-        <v>347.1400716893928</v>
+        <v>311.572092544789</v>
       </c>
       <c r="N25" t="n">
-        <v>465.5624134389932</v>
+        <v>429.9944342943894</v>
       </c>
       <c r="O25" t="n">
-        <v>564.0260599346828</v>
+        <v>528.4580807900791</v>
       </c>
       <c r="P25" t="n">
-        <v>626.9945436628207</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q25" t="n">
-        <v>626.9945436628207</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R25" t="n">
         <v>628.266068145054</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1652.229537859157</v>
+        <v>1652.229537859156</v>
       </c>
       <c r="C26" t="n">
-        <v>1398.363405813928</v>
+        <v>1398.363405813927</v>
       </c>
       <c r="D26" t="n">
-        <v>1153.607067663116</v>
+        <v>1153.607067663115</v>
       </c>
       <c r="E26" t="n">
-        <v>886.8889743911861</v>
+        <v>886.8889743911852</v>
       </c>
       <c r="F26" t="n">
-        <v>600.8054103233202</v>
+        <v>600.8054103233194</v>
       </c>
       <c r="G26" t="n">
-        <v>312.7690503994719</v>
+        <v>312.7690503994713</v>
       </c>
       <c r="H26" t="n">
-        <v>108.0154026187449</v>
+        <v>108.0154026187452</v>
       </c>
       <c r="I26" t="n">
-        <v>63.26583044950466</v>
+        <v>63.2658304495052</v>
       </c>
       <c r="J26" t="n">
-        <v>260.7834555744971</v>
+        <v>260.7834555744975</v>
       </c>
       <c r="K26" t="n">
-        <v>626.4429084714666</v>
+        <v>626.4429084714669</v>
       </c>
       <c r="L26" t="n">
         <v>1099.8473624086</v>
       </c>
       <c r="M26" t="n">
-        <v>1618.605609513874</v>
+        <v>1618.605609513875</v>
       </c>
       <c r="N26" t="n">
         <v>2122.456049053776</v>
       </c>
       <c r="O26" t="n">
-        <v>2552.979714378797</v>
+        <v>2552.979714378796</v>
       </c>
       <c r="P26" t="n">
-        <v>2906.655691687037</v>
+        <v>2906.655691687036</v>
       </c>
       <c r="Q26" t="n">
-        <v>3126.607026225761</v>
+        <v>3126.60702622576</v>
       </c>
       <c r="R26" t="n">
         <v>3163.291522475233</v>
       </c>
       <c r="S26" t="n">
-        <v>3104.130173727551</v>
+        <v>3104.13017372755</v>
       </c>
       <c r="T26" t="n">
-        <v>3007.838854080526</v>
+        <v>3007.838854080525</v>
       </c>
       <c r="U26" t="n">
-        <v>2881.021144416484</v>
+        <v>2881.021144416483</v>
       </c>
       <c r="V26" t="n">
-        <v>2672.109496934389</v>
+        <v>2672.109496934388</v>
       </c>
       <c r="W26" t="n">
-        <v>2437.642193413954</v>
+        <v>2437.642193413953</v>
       </c>
       <c r="X26" t="n">
-        <v>2183.679679557411</v>
+        <v>2183.67967955741</v>
       </c>
       <c r="Y26" t="n">
-        <v>1918.205450755213</v>
+        <v>1918.205450755212</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>942.5785909515488</v>
+        <v>927.8659734914443</v>
       </c>
       <c r="C27" t="n">
-        <v>780.8749181925035</v>
+        <v>766.162300732399</v>
       </c>
       <c r="D27" t="n">
-        <v>642.0362811827156</v>
+        <v>627.3236637226111</v>
       </c>
       <c r="E27" t="n">
-        <v>495.0082712395867</v>
+        <v>480.2956537794823</v>
       </c>
       <c r="F27" t="n">
-        <v>360.3144731894611</v>
+        <v>345.6018557293567</v>
       </c>
       <c r="G27" t="n">
-        <v>231.5859732127456</v>
+        <v>216.8733557526412</v>
       </c>
       <c r="H27" t="n">
-        <v>131.6481157594437</v>
+        <v>116.9354982993393</v>
       </c>
       <c r="I27" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J27" t="n">
         <v>123.5199769826108</v>
@@ -6327,28 +6327,28 @@
         <v>2567.198874191706</v>
       </c>
       <c r="R27" t="n">
-        <v>2522.127222746756</v>
+        <v>2507.414605286652</v>
       </c>
       <c r="S27" t="n">
-        <v>2369.327735759497</v>
+        <v>2354.615118299392</v>
       </c>
       <c r="T27" t="n">
-        <v>2180.642631925482</v>
+        <v>2165.930014465378</v>
       </c>
       <c r="U27" t="n">
-        <v>1962.147839523792</v>
+        <v>1947.435222063688</v>
       </c>
       <c r="V27" t="n">
-        <v>1733.752216972126</v>
+        <v>1719.039599512022</v>
       </c>
       <c r="W27" t="n">
-        <v>1492.436348205436</v>
+        <v>1477.723730745332</v>
       </c>
       <c r="X27" t="n">
-        <v>1294.519360083231</v>
+        <v>1279.806742623126</v>
       </c>
       <c r="Y27" t="n">
-        <v>1101.99803373281</v>
+        <v>1087.285416272705</v>
       </c>
     </row>
     <row r="28">
@@ -6379,28 +6379,28 @@
         <v>79.4012482248624</v>
       </c>
       <c r="I28" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J28" t="n">
-        <v>129.922811763722</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="K28" t="n">
-        <v>289.0460803605521</v>
+        <v>222.3890990463347</v>
       </c>
       <c r="L28" t="n">
-        <v>389.6531597608116</v>
+        <v>448.5152592987809</v>
       </c>
       <c r="M28" t="n">
-        <v>507.6466658884133</v>
+        <v>692.0278462785693</v>
       </c>
       <c r="N28" t="n">
-        <v>751.5880884902003</v>
+        <v>894.2409977937905</v>
       </c>
       <c r="O28" t="n">
-        <v>904.9560116908128</v>
+        <v>1118.223725141667</v>
       </c>
       <c r="P28" t="n">
-        <v>1093.443576271137</v>
+        <v>1181.192208869805</v>
       </c>
       <c r="Q28" t="n">
         <v>1181.192208869805</v>
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1652.229537859157</v>
+        <v>1652.229537859156</v>
       </c>
       <c r="C29" t="n">
-        <v>1398.363405813928</v>
+        <v>1398.363405813927</v>
       </c>
       <c r="D29" t="n">
-        <v>1153.607067663116</v>
+        <v>1153.607067663115</v>
       </c>
       <c r="E29" t="n">
-        <v>886.8889743911861</v>
+        <v>886.8889743911855</v>
       </c>
       <c r="F29" t="n">
-        <v>600.8054103233201</v>
+        <v>600.8054103233189</v>
       </c>
       <c r="G29" t="n">
-        <v>312.7690503994719</v>
+        <v>312.7690503994706</v>
       </c>
       <c r="H29" t="n">
         <v>108.0154026187449</v>
       </c>
       <c r="I29" t="n">
-        <v>63.26583044950463</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J29" t="n">
-        <v>260.7834555744969</v>
+        <v>260.7834555744971</v>
       </c>
       <c r="K29" t="n">
-        <v>626.4429084714664</v>
+        <v>626.4429084714665</v>
       </c>
       <c r="L29" t="n">
-        <v>1099.8473624086</v>
+        <v>1099.847362408599</v>
       </c>
       <c r="M29" t="n">
         <v>1618.605609513874</v>
@@ -6482,7 +6482,7 @@
         <v>2906.655691687037</v>
       </c>
       <c r="Q29" t="n">
-        <v>3126.607026225761</v>
+        <v>3126.60702622576</v>
       </c>
       <c r="R29" t="n">
         <v>3163.291522475233</v>
@@ -6491,10 +6491,10 @@
         <v>3104.130173727551</v>
       </c>
       <c r="T29" t="n">
-        <v>3007.838854080526</v>
+        <v>3007.838854080525</v>
       </c>
       <c r="U29" t="n">
-        <v>2881.021144416484</v>
+        <v>2881.021144416483</v>
       </c>
       <c r="V29" t="n">
         <v>2672.109496934389</v>
@@ -6503,7 +6503,7 @@
         <v>2437.642193413953</v>
       </c>
       <c r="X29" t="n">
-        <v>2183.679679557411</v>
+        <v>2183.67967955741</v>
       </c>
       <c r="Y29" t="n">
         <v>1918.205450755212</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>942.5785909515488</v>
+        <v>927.8659734914443</v>
       </c>
       <c r="C30" t="n">
-        <v>780.8749181925035</v>
+        <v>766.162300732399</v>
       </c>
       <c r="D30" t="n">
-        <v>642.0362811827156</v>
+        <v>627.3236637226111</v>
       </c>
       <c r="E30" t="n">
-        <v>495.0082712395867</v>
+        <v>480.2956537794823</v>
       </c>
       <c r="F30" t="n">
-        <v>360.3144731894611</v>
+        <v>345.6018557293567</v>
       </c>
       <c r="G30" t="n">
-        <v>231.5859732127456</v>
+        <v>216.8733557526412</v>
       </c>
       <c r="H30" t="n">
         <v>131.6481157594437</v>
       </c>
       <c r="I30" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J30" t="n">
         <v>123.5199769826108</v>
@@ -6564,28 +6564,28 @@
         <v>2567.198874191706</v>
       </c>
       <c r="R30" t="n">
-        <v>2522.127222746756</v>
+        <v>2507.414605286652</v>
       </c>
       <c r="S30" t="n">
-        <v>2369.327735759497</v>
+        <v>2354.615118299392</v>
       </c>
       <c r="T30" t="n">
-        <v>2180.642631925482</v>
+        <v>2165.930014465378</v>
       </c>
       <c r="U30" t="n">
-        <v>1962.147839523792</v>
+        <v>1947.435222063688</v>
       </c>
       <c r="V30" t="n">
-        <v>1733.752216972126</v>
+        <v>1719.039599512022</v>
       </c>
       <c r="W30" t="n">
-        <v>1492.436348205436</v>
+        <v>1477.723730745332</v>
       </c>
       <c r="X30" t="n">
-        <v>1294.519360083231</v>
+        <v>1279.806742623126</v>
       </c>
       <c r="Y30" t="n">
-        <v>1101.99803373281</v>
+        <v>1087.285416272705</v>
       </c>
     </row>
     <row r="31">
@@ -6616,28 +6616,28 @@
         <v>79.4012482248624</v>
       </c>
       <c r="I31" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J31" t="n">
         <v>129.922811763722</v>
       </c>
       <c r="K31" t="n">
-        <v>289.0460803605521</v>
+        <v>218.4312762132882</v>
       </c>
       <c r="L31" t="n">
-        <v>515.1722406129983</v>
+        <v>444.5574364657344</v>
       </c>
       <c r="M31" t="n">
-        <v>758.6848275927866</v>
+        <v>562.5509425933361</v>
       </c>
       <c r="N31" t="n">
-        <v>1002.626250194574</v>
+        <v>680.9732843429365</v>
       </c>
       <c r="O31" t="n">
-        <v>1118.223725141667</v>
+        <v>904.9560116908128</v>
       </c>
       <c r="P31" t="n">
-        <v>1181.192208869805</v>
+        <v>1093.443576271137</v>
       </c>
       <c r="Q31" t="n">
         <v>1181.192208869805</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1576.234575957425</v>
+        <v>1576.234575957423</v>
       </c>
       <c r="C32" t="n">
-        <v>1332.769988976958</v>
+        <v>1332.769988976957</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.415195890908</v>
+        <v>1098.415195890907</v>
       </c>
       <c r="E32" t="n">
-        <v>842.0986476837406</v>
+        <v>842.09864768374</v>
       </c>
       <c r="F32" t="n">
-        <v>566.4166286806371</v>
+        <v>566.4166286806364</v>
       </c>
       <c r="G32" t="n">
-        <v>288.7818138215512</v>
+        <v>288.7818138215507</v>
       </c>
       <c r="H32" t="n">
-        <v>94.42971110558592</v>
+        <v>94.42971110558574</v>
       </c>
       <c r="I32" t="n">
-        <v>60.08168400110804</v>
+        <v>60.08168400110799</v>
       </c>
       <c r="J32" t="n">
-        <v>267.793863444074</v>
+        <v>267.7938634440741</v>
       </c>
       <c r="K32" t="n">
-        <v>643.6478706590169</v>
+        <v>643.6478706590171</v>
       </c>
       <c r="L32" t="n">
-        <v>1127.246878914123</v>
+        <v>1127.246878914124</v>
       </c>
       <c r="M32" t="n">
-        <v>1544.139150674335</v>
+        <v>1520.486045167212</v>
       </c>
       <c r="N32" t="n">
-        <v>1922.470509362051</v>
+        <v>2034.531039025088</v>
       </c>
       <c r="O32" t="n">
-        <v>2363.188729005045</v>
+        <v>2363.188729005042</v>
       </c>
       <c r="P32" t="n">
-        <v>2727.059260631259</v>
+        <v>2727.059260631256</v>
       </c>
       <c r="Q32" t="n">
-        <v>2957.205149487956</v>
+        <v>2957.205149487953</v>
       </c>
       <c r="R32" t="n">
-        <v>3004.084200055402</v>
+        <v>3004.0842000554</v>
       </c>
       <c r="S32" t="n">
-        <v>2955.324396372483</v>
+        <v>2955.32439637248</v>
       </c>
       <c r="T32" t="n">
-        <v>2869.43462179022</v>
+        <v>2869.434621790218</v>
       </c>
       <c r="U32" t="n">
-        <v>2753.018457190939</v>
+        <v>2753.018457190938</v>
       </c>
       <c r="V32" t="n">
-        <v>2554.508354773607</v>
+        <v>2554.508354773605</v>
       </c>
       <c r="W32" t="n">
-        <v>2330.442596317934</v>
+        <v>2330.442596317932</v>
       </c>
       <c r="X32" t="n">
-        <v>2086.881627526153</v>
+        <v>2086.881627526152</v>
       </c>
       <c r="Y32" t="n">
-        <v>1831.808943788718</v>
+        <v>1831.808943788716</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>939.3944445031522</v>
+        <v>924.6818270430474</v>
       </c>
       <c r="C33" t="n">
-        <v>777.6907717441069</v>
+        <v>762.9781542840021</v>
       </c>
       <c r="D33" t="n">
-        <v>638.852134734319</v>
+        <v>624.1395172742142</v>
       </c>
       <c r="E33" t="n">
-        <v>491.8241247911901</v>
+        <v>477.1115073310854</v>
       </c>
       <c r="F33" t="n">
         <v>357.1303267410644</v>
@@ -6774,16 +6774,16 @@
         <v>128.463969311047</v>
       </c>
       <c r="I33" t="n">
-        <v>60.08168400110804</v>
+        <v>60.08168400110799</v>
       </c>
       <c r="J33" t="n">
-        <v>120.3358305342142</v>
+        <v>120.3358305342141</v>
       </c>
       <c r="K33" t="n">
         <v>349.8263830944028</v>
       </c>
       <c r="L33" t="n">
-        <v>715.6482282645185</v>
+        <v>715.6482282645184</v>
       </c>
       <c r="M33" t="n">
         <v>1200.681581774745</v>
@@ -6801,28 +6801,28 @@
         <v>2564.014727743309</v>
       </c>
       <c r="R33" t="n">
-        <v>2518.94307629836</v>
+        <v>2504.230458838255</v>
       </c>
       <c r="S33" t="n">
-        <v>2366.1435893111</v>
+        <v>2351.430971850995</v>
       </c>
       <c r="T33" t="n">
-        <v>2177.458485477086</v>
+        <v>2162.745868016981</v>
       </c>
       <c r="U33" t="n">
-        <v>1958.963693075396</v>
+        <v>1944.251075615291</v>
       </c>
       <c r="V33" t="n">
-        <v>1730.56807052373</v>
+        <v>1715.855453063625</v>
       </c>
       <c r="W33" t="n">
-        <v>1489.25220175704</v>
+        <v>1474.539584296935</v>
       </c>
       <c r="X33" t="n">
-        <v>1291.335213634834</v>
+        <v>1276.622596174729</v>
       </c>
       <c r="Y33" t="n">
-        <v>1098.813887284413</v>
+        <v>1084.101269824308</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>190.4704523676839</v>
+        <v>190.4704523676828</v>
       </c>
       <c r="C34" t="n">
-        <v>159.3236545160903</v>
+        <v>159.3236545160894</v>
       </c>
       <c r="D34" t="n">
-        <v>144.7209330305791</v>
+        <v>144.7209330305784</v>
       </c>
       <c r="E34" t="n">
-        <v>131.1810904786241</v>
+        <v>131.1810904786235</v>
       </c>
       <c r="F34" t="n">
-        <v>117.1696071911273</v>
+        <v>117.1696071911269</v>
       </c>
       <c r="G34" t="n">
-        <v>86.71903024570346</v>
+        <v>86.71903024570312</v>
       </c>
       <c r="H34" t="n">
-        <v>65.81555671170341</v>
+        <v>65.81555671170321</v>
       </c>
       <c r="I34" t="n">
-        <v>60.08168400110804</v>
+        <v>60.08168400110799</v>
       </c>
       <c r="J34" t="n">
-        <v>60.08168400110804</v>
+        <v>110.1536388823129</v>
       </c>
       <c r="K34" t="n">
-        <v>93.68587174575146</v>
+        <v>143.7578266269563</v>
       </c>
       <c r="L34" t="n">
-        <v>194.292951146011</v>
+        <v>380.0785411973762</v>
       </c>
       <c r="M34" t="n">
-        <v>448.0000924437729</v>
+        <v>498.0720473249779</v>
       </c>
       <c r="N34" t="n">
-        <v>578.7239408210617</v>
+        <v>616.4943890745783</v>
       </c>
       <c r="O34" t="n">
-        <v>812.9012224869116</v>
+        <v>714.958035570268</v>
       </c>
       <c r="P34" t="n">
-        <v>1011.58334138521</v>
+        <v>913.6401544685662</v>
       </c>
       <c r="Q34" t="n">
-        <v>1011.58334138521</v>
+        <v>1011.583341385207</v>
       </c>
       <c r="R34" t="n">
-        <v>1000.530731686314</v>
+        <v>1000.530731686312</v>
       </c>
       <c r="S34" t="n">
-        <v>925.2901407767276</v>
+        <v>925.2901407767255</v>
       </c>
       <c r="T34" t="n">
-        <v>830.5803592791326</v>
+        <v>830.5803592791306</v>
       </c>
       <c r="U34" t="n">
-        <v>681.8592914549586</v>
+        <v>681.8592914549567</v>
       </c>
       <c r="V34" t="n">
-        <v>559.5931587001073</v>
+        <v>559.5931587001056</v>
       </c>
       <c r="W34" t="n">
-        <v>411.9059289042325</v>
+        <v>411.905928904231</v>
       </c>
       <c r="X34" t="n">
-        <v>319.1226364863344</v>
+        <v>319.122636486333</v>
       </c>
       <c r="Y34" t="n">
-        <v>235.5566493653376</v>
+        <v>235.5566493653364</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6935,25 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>711.1249637646204</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M35" t="n">
-        <v>1104.364130017708</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N35" t="n">
-        <v>1482.695488705424</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O35" t="n">
-        <v>1827.875829091314</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P35" t="n">
-        <v>2220.500500038399</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q35" t="n">
         <v>2479.400528215969</v>
@@ -6999,10 +6999,10 @@
         <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F36" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G36" t="n">
         <v>219.4208171253267</v>
@@ -7102,19 +7102,19 @@
         <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
-        <v>611.4572037146872</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
         <v>629.3786802696717</v>
@@ -7154,10 +7154,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E38" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F38" t="n">
         <v>469.4217245791957</v>
@@ -7166,34 +7166,34 @@
         <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575745</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
         <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>692.175139661739</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L38" t="n">
-        <v>1080.236268659741</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M38" t="n">
-        <v>1473.475434912829</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1851.806793600545</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
-        <v>2156.811378073378</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7202,22 +7202,22 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T38" t="n">
-        <v>2479.060069480716</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U38" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V38" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W38" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X38" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y38" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L40" t="n">
         <v>185.3119415069887</v>
@@ -7348,34 +7348,34 @@
         <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7391,46 +7391,46 @@
         <v>858.1622891534766</v>
       </c>
       <c r="D41" t="n">
-        <v>620.967805192719</v>
+        <v>620.9678051927189</v>
       </c>
       <c r="E41" t="n">
-        <v>361.8115661108448</v>
+        <v>361.8115661108445</v>
       </c>
       <c r="F41" t="n">
-        <v>361.8115661108448</v>
+        <v>248.2924679527577</v>
       </c>
       <c r="G41" t="n">
-        <v>285.480185931943</v>
+        <v>248.2924679527577</v>
       </c>
       <c r="H41" t="n">
-        <v>88.28839234127098</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
-        <v>256.029672778751</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>629.1004989673933</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>1109.916326196199</v>
+        <v>757.0780961164803</v>
       </c>
       <c r="M41" t="n">
-        <v>1503.155492449287</v>
+        <v>1150.317262369568</v>
       </c>
       <c r="N41" t="n">
-        <v>1881.486851137003</v>
+        <v>1661.579075201143</v>
       </c>
       <c r="O41" t="n">
-        <v>2186.491435609837</v>
+        <v>1966.583659673978</v>
       </c>
       <c r="P41" t="n">
-        <v>2414.64833206589</v>
+        <v>2327.67101027389</v>
       </c>
       <c r="Q41" t="n">
-        <v>2510.937848563141</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4366996419374</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>204.7081996652219</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,22 +7512,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
         <v>1267.641586535707</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>201.3672788516132</v>
+        <v>201.3672788516133</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3807901253122</v>
+        <v>167.3807901253123</v>
       </c>
       <c r="D43" t="n">
-        <v>149.9383777650937</v>
+        <v>149.9383777650938</v>
       </c>
       <c r="E43" t="n">
-        <v>133.5588443384313</v>
+        <v>133.5588443384314</v>
       </c>
       <c r="F43" t="n">
-        <v>116.7076701762271</v>
+        <v>116.7076701762272</v>
       </c>
       <c r="G43" t="n">
-        <v>83.41740235609589</v>
+        <v>83.41740235609592</v>
       </c>
       <c r="H43" t="n">
-        <v>59.67423794738846</v>
+        <v>59.67423794738848</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L43" t="n">
-        <v>289.1684934624163</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>407.161999590018</v>
+        <v>436.2359017784499</v>
       </c>
       <c r="N43" t="n">
-        <v>525.5843413396184</v>
+        <v>658.5147954834785</v>
       </c>
       <c r="O43" t="n">
-        <v>756.9784419791677</v>
+        <v>756.9784419791681</v>
       </c>
       <c r="P43" t="n">
-        <v>952.877379851165</v>
+        <v>952.8773798511655</v>
       </c>
       <c r="Q43" t="n">
-        <v>1048.037385741505</v>
+        <v>1048.037385741506</v>
       </c>
       <c r="R43" t="n">
-        <v>1034.145085167902</v>
+        <v>1034.145085167903</v>
       </c>
       <c r="S43" t="n">
-        <v>956.0648033836085</v>
+        <v>956.0648033836088</v>
       </c>
       <c r="T43" t="n">
-        <v>858.5153310113061</v>
+        <v>858.5153310113063</v>
       </c>
       <c r="U43" t="n">
-        <v>706.9545723124247</v>
+        <v>706.9545723124249</v>
       </c>
       <c r="V43" t="n">
-        <v>581.848748682866</v>
+        <v>581.8487486828662</v>
       </c>
       <c r="W43" t="n">
-        <v>431.3218280122838</v>
+        <v>431.3218280122841</v>
       </c>
       <c r="X43" t="n">
-        <v>335.6988447196784</v>
+        <v>335.6988447196786</v>
       </c>
       <c r="Y43" t="n">
-        <v>249.2931667239742</v>
+        <v>249.2931667239744</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7625,49 @@
         <v>1104.466567008651</v>
       </c>
       <c r="C44" t="n">
-        <v>858.1622891534769</v>
+        <v>858.1622891534768</v>
       </c>
       <c r="D44" t="n">
-        <v>825.1109307476106</v>
+        <v>620.9678051927187</v>
       </c>
       <c r="E44" t="n">
-        <v>565.9546916657362</v>
+        <v>526.8141778305687</v>
       </c>
       <c r="F44" t="n">
-        <v>565.9546916657362</v>
+        <v>248.2924679527577</v>
       </c>
       <c r="G44" t="n">
-        <v>285.480185931943</v>
+        <v>248.2924679527577</v>
       </c>
       <c r="H44" t="n">
-        <v>88.28839234127096</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>256.029672778751</v>
+        <v>169.0523509867514</v>
       </c>
       <c r="K44" t="n">
-        <v>629.1004989673933</v>
+        <v>409.1927230315342</v>
       </c>
       <c r="L44" t="n">
-        <v>1109.916326196199</v>
+        <v>890.0085502603399</v>
       </c>
       <c r="M44" t="n">
-        <v>1505.012755260002</v>
+        <v>1416.178170657287</v>
       </c>
       <c r="N44" t="n">
-        <v>1883.344113947717</v>
+        <v>1794.509529345003</v>
       </c>
       <c r="O44" t="n">
-        <v>2188.348698420551</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P44" t="n">
-        <v>2416.505594876604</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
-        <v>2510.937848563141</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>201.3672788516132</v>
+        <v>201.3672788516134</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3807901253122</v>
+        <v>167.3807901253124</v>
       </c>
       <c r="D46" t="n">
-        <v>149.9383777650937</v>
+        <v>149.9383777650938</v>
       </c>
       <c r="E46" t="n">
-        <v>133.5588443384312</v>
+        <v>133.5588443384314</v>
       </c>
       <c r="F46" t="n">
-        <v>116.7076701762271</v>
+        <v>116.7076701762272</v>
       </c>
       <c r="G46" t="n">
-        <v>83.41740235609586</v>
+        <v>83.41740235609595</v>
       </c>
       <c r="H46" t="n">
-        <v>59.67423794738845</v>
+        <v>59.67423794738849</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672914</v>
+        <v>217.6353162505887</v>
       </c>
       <c r="L46" t="n">
-        <v>185.3119415069887</v>
+        <v>422.0989476062764</v>
       </c>
       <c r="M46" t="n">
-        <v>436.2359017784499</v>
+        <v>673.0229078777377</v>
       </c>
       <c r="N46" t="n">
-        <v>554.6582435280503</v>
+        <v>791.4452496273381</v>
       </c>
       <c r="O46" t="n">
-        <v>786.0523441675996</v>
+        <v>889.9088961230277</v>
       </c>
       <c r="P46" t="n">
-        <v>981.9512820395969</v>
+        <v>952.8773798511655</v>
       </c>
       <c r="Q46" t="n">
-        <v>1048.037385741505</v>
+        <v>1048.037385741506</v>
       </c>
       <c r="R46" t="n">
-        <v>1034.145085167902</v>
+        <v>1034.145085167903</v>
       </c>
       <c r="S46" t="n">
-        <v>956.0648033836085</v>
+        <v>956.0648033836089</v>
       </c>
       <c r="T46" t="n">
-        <v>858.5153310113061</v>
+        <v>858.5153310113064</v>
       </c>
       <c r="U46" t="n">
-        <v>706.9545723124247</v>
+        <v>706.9545723124251</v>
       </c>
       <c r="V46" t="n">
-        <v>581.848748682866</v>
+        <v>581.8487486828664</v>
       </c>
       <c r="W46" t="n">
-        <v>431.3218280122838</v>
+        <v>431.3218280122842</v>
       </c>
       <c r="X46" t="n">
-        <v>335.6988447196784</v>
+        <v>335.6988447196787</v>
       </c>
       <c r="Y46" t="n">
-        <v>249.2931667239742</v>
+        <v>249.2931667239745</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>263.7898686946001</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>584.3675935406823</v>
+        <v>426.7684258927663</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -8061,22 +8061,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>466.1431514615219</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>600.9852732216719</v>
       </c>
       <c r="N3" t="n">
-        <v>506.2417358944505</v>
+        <v>592.2165117277405</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8222,7 +8222,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>584.3675935406823</v>
+        <v>426.7684258927663</v>
       </c>
       <c r="N5" t="n">
         <v>568.5510017355793</v>
@@ -8231,7 +8231,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>260.7391529750132</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8298,10 +8298,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>396.1176730612053</v>
       </c>
       <c r="M6" t="n">
-        <v>515.0104973883821</v>
+        <v>600.9852732216719</v>
       </c>
       <c r="N6" t="n">
         <v>106.7151410677083</v>
@@ -8538,16 +8538,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>367.9315448499079</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
         <v>273.1004740566038</v>
@@ -8784,7 +8784,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319179</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,7 +9486,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>605.416582875</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -10914,7 +10914,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>512.021015059748</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11154,7 +11154,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319179</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11379,7 +11379,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>482.092448894497</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>277.4076971867455</v>
+        <v>275.9078171911221</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721452</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508323</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149372</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>17.99783744481215</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508324</v>
+        <v>57.65886129508318</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774087</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149372</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>197.2437082474168</v>
+        <v>203.3607040808143</v>
       </c>
     </row>
     <row r="15">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>275.7364927790328</v>
+        <v>163.3525856025269</v>
       </c>
       <c r="G41" t="n">
-        <v>202.1016942993426</v>
+        <v>277.6697606764553</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>36.81584079939341</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25868,22 +25868,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>202.1016942993425</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>163.3525856025271</v>
       </c>
       <c r="F44" t="n">
-        <v>275.7364927790328</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>277.6697606764553</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.81584079939341</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>616354.6397218689</v>
+        <v>616354.6397218688</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>616354.6397218689</v>
+        <v>616354.6397218688</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>569503.450018415</v>
+        <v>569503.4500184151</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>588790.5390341018</v>
+        <v>588790.5390341016</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>588790.5390341018</v>
+        <v>588790.5390341016</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>748433.4589818274</v>
+        <v>748433.458981827</v>
       </c>
       <c r="C2" t="n">
-        <v>748433.4589818271</v>
+        <v>748433.4589818273</v>
       </c>
       <c r="D2" t="n">
         <v>748433.4589818271</v>
       </c>
       <c r="E2" t="n">
-        <v>687084.0349726178</v>
+        <v>687084.0349726179</v>
       </c>
       <c r="F2" t="n">
-        <v>687084.0349726178</v>
+        <v>687084.034972618</v>
       </c>
       <c r="G2" t="n">
         <v>748433.4589818269</v>
       </c>
       <c r="H2" t="n">
-        <v>748433.4589818269</v>
+        <v>748433.4589818267</v>
       </c>
       <c r="I2" t="n">
         <v>748433.4589818268</v>
@@ -26338,19 +26338,19 @@
         <v>748433.458981827</v>
       </c>
       <c r="K2" t="n">
+        <v>748433.458981827</v>
+      </c>
+      <c r="L2" t="n">
+        <v>748433.4589818253</v>
+      </c>
+      <c r="M2" t="n">
+        <v>748433.458981827</v>
+      </c>
+      <c r="N2" t="n">
         <v>748433.4589818271</v>
       </c>
-      <c r="L2" t="n">
-        <v>748433.4589818256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>748433.4589818269</v>
-      </c>
-      <c r="N2" t="n">
-        <v>748433.4589818273</v>
-      </c>
       <c r="O2" t="n">
-        <v>711348.4372826747</v>
+        <v>711348.4372826748</v>
       </c>
       <c r="P2" t="n">
         <v>711348.4372826747</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162702.6758397021</v>
+        <v>162702.6758397019</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12363.64264081804</v>
+        <v>12363.64264081818</v>
       </c>
       <c r="E3" t="n">
-        <v>124619.3675503041</v>
+        <v>124619.3675503042</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>42159.11970739857</v>
+        <v>42159.11970739855</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>226085.7124438782</v>
+        <v>226085.7124438781</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>50397.14339869036</v>
+        <v>50397.14339869046</v>
       </c>
       <c r="M3" t="n">
-        <v>23532.87076561659</v>
+        <v>23532.8707656166</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33785.73726634998</v>
+        <v>33785.73726635003</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217948.7198045594</v>
+        <v>217948.7198045595</v>
       </c>
       <c r="C4" t="n">
-        <v>217948.7198045594</v>
+        <v>217948.7198045595</v>
       </c>
       <c r="D4" t="n">
-        <v>208183.1070948235</v>
+        <v>208183.1070948236</v>
       </c>
       <c r="E4" t="n">
-        <v>163304.2729689146</v>
+        <v>163304.2729689147</v>
       </c>
       <c r="F4" t="n">
-        <v>163304.2729689146</v>
+        <v>163304.2729689147</v>
       </c>
       <c r="G4" t="n">
         <v>198982.8504522114</v>
       </c>
       <c r="H4" t="n">
-        <v>198982.8504522114</v>
+        <v>198982.8504522115</v>
       </c>
       <c r="I4" t="n">
         <v>198982.8504522114</v>
@@ -26445,7 +26445,7 @@
         <v>199767.3414450235</v>
       </c>
       <c r="L4" t="n">
-        <v>199554.1587124574</v>
+        <v>199554.1587124573</v>
       </c>
       <c r="M4" t="n">
         <v>198982.8504522114</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63146.08333612997</v>
+        <v>63146.08333612994</v>
       </c>
       <c r="C5" t="n">
-        <v>63146.08333612997</v>
+        <v>63146.08333612994</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>48372.47309929475</v>
+        <v>48372.47309929476</v>
       </c>
       <c r="F5" t="n">
         <v>48372.47309929476</v>
@@ -26497,7 +26497,7 @@
         <v>58740.88327108059</v>
       </c>
       <c r="L5" t="n">
-        <v>57186.63498742817</v>
+        <v>57186.63498742815</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26506,10 +26506,10 @@
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
+        <v>50124.7249893469</v>
+      </c>
+      <c r="P5" t="n">
         <v>50124.72498934691</v>
-      </c>
-      <c r="P5" t="n">
-        <v>50124.7249893469</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304635.9800014358</v>
+        <v>304635.9800014356</v>
       </c>
       <c r="C6" t="n">
         <v>467338.6558411378</v>
       </c>
       <c r="D6" t="n">
-        <v>462320.6746092742</v>
+        <v>462320.674609274</v>
       </c>
       <c r="E6" t="n">
-        <v>350787.9213541042</v>
+        <v>350630.615138696</v>
       </c>
       <c r="F6" t="n">
-        <v>475407.2889044084</v>
+        <v>475249.9826890003</v>
       </c>
       <c r="G6" t="n">
-        <v>454488.6719295706</v>
+        <v>454488.6719295705</v>
       </c>
       <c r="H6" t="n">
+        <v>496647.7916369688</v>
+      </c>
+      <c r="I6" t="n">
         <v>496647.7916369691</v>
       </c>
-      <c r="I6" t="n">
-        <v>496647.791636969</v>
-      </c>
       <c r="J6" t="n">
-        <v>263839.5218218447</v>
+        <v>263839.5218218449</v>
       </c>
       <c r="K6" t="n">
-        <v>489925.2342657231</v>
+        <v>489925.2342657229</v>
       </c>
       <c r="L6" t="n">
-        <v>441295.5218832496</v>
+        <v>441295.5218832493</v>
       </c>
       <c r="M6" t="n">
-        <v>473114.9208713524</v>
+        <v>473114.9208713527</v>
       </c>
       <c r="N6" t="n">
-        <v>496647.7916369694</v>
+        <v>496647.7916369693</v>
       </c>
       <c r="O6" t="n">
-        <v>450034.2728115375</v>
+        <v>449939.183012309</v>
       </c>
       <c r="P6" t="n">
-        <v>483820.0100778874</v>
+        <v>483724.9202786589</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26713,7 +26713,7 @@
         <v>126.7869503557441</v>
       </c>
       <c r="L2" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26722,10 +26722,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O2" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="P2" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.5013706600325</v>
+        <v>485.5013706600321</v>
       </c>
       <c r="C4" t="n">
-        <v>485.5013706600325</v>
+        <v>485.5013706600321</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="F4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="F4" t="n">
-        <v>638.7584295260717</v>
       </c>
       <c r="G4" t="n">
         <v>638.7584295260717</v>
@@ -26811,25 +26811,25 @@
         <v>638.7584295260717</v>
       </c>
       <c r="J4" t="n">
-        <v>790.8228806188083</v>
+        <v>790.8228806188082</v>
       </c>
       <c r="K4" t="n">
-        <v>790.8228806188083</v>
+        <v>790.8228806188082</v>
       </c>
       <c r="L4" t="n">
-        <v>751.0210500138505</v>
+        <v>751.02105001385</v>
       </c>
       <c r="M4" t="n">
         <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260716</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="P4" t="n">
-        <v>638.7584295260716</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.69889963424821</v>
+        <v>52.69889963424818</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.08805072149586</v>
+        <v>74.08805072149592</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.99642924836296</v>
+        <v>62.99642924836307</v>
       </c>
       <c r="M2" t="n">
-        <v>29.04458517259812</v>
+        <v>29.04458517259795</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.23217158293747</v>
+        <v>42.23217158293753</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.5013706600325</v>
+        <v>485.5013706600321</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.80183060495779</v>
+        <v>39.80183060495824</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>637.5658217527691</v>
+        <v>637.5658217527686</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.192607773302598</v>
+        <v>1.192607773303166</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.69889963424821</v>
+        <v>52.69889963424818</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>74.08805072149586</v>
+        <v>74.08805072149592</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>485.5013706600325</v>
+        <v>485.5013706600321</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>39.80183060495779</v>
+        <v>39.80183060495824</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27382,22 +27382,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>348.9260991630013</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>288.066486126895</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.9826781723087</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>47.64793159192843</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,16 +27588,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>229.3283696525923</v>
       </c>
       <c r="U4" t="n">
-        <v>269.8144612536708</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>267.6491099709129</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>1.04895898732542</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>192.3496783901947</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>165.274062157278</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>37.36950009705572</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -27819,7 +27819,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>135.4299118985452</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -27834,7 +27834,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>19.93387180902232</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>237.1500269824789</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27941,16 +27941,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>49.32288970647717</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,16 +27983,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>105.205836573811</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>189.0241322230513</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>180.1440452869121</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,43 +28087,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M11" t="n">
-        <v>85.24810502388505</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>85.24810502388482</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -28132,31 +28132,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,7 +28220,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,40 +28360,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>85.24810502388482</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O14" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.4301655082087</v>
+        <v>85.24810502388468</v>
       </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,7 +28457,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>14.56549128550398</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082083</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.4301655082093</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="17">
@@ -28594,22 +28594,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="N17" t="n">
-        <v>40.58157162934924</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="R17" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>166.1290651424569</v>
@@ -28731,16 +28731,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G19" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H19" t="n">
-        <v>162.9939828386722</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I19" t="n">
-        <v>166.1290651424569</v>
+        <v>147.8207661206955</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28822,7 +28822,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28834,19 +28834,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O20" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="Q20" t="n">
-        <v>40.58157162934955</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.73508319210941</v>
+        <v>83.71373413187378</v>
       </c>
       <c r="R22" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
         <v>166.1290651424569</v>
@@ -29059,13 +29059,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29074,16 +29074,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>40.58157162934941</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P23" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29199,19 +29199,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D25" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>166.1290651424569</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F25" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I25" t="n">
         <v>142.7610139533483</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>19.10911825439662</v>
       </c>
       <c r="Q25" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>149.3109317356376</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S25" t="n">
         <v>166.1290651424569</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550334</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29454,28 +29454,28 @@
         <v>126.7869503557441</v>
       </c>
       <c r="J28" t="n">
-        <v>126.7869503557441</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
         <v>126.7869503557441</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="N28" t="n">
+        <v>84.63718158143514</v>
+      </c>
+      <c r="O28" t="n">
         <v>126.7869503557441</v>
       </c>
-      <c r="O28" t="n">
-        <v>55.45886535850789</v>
-      </c>
       <c r="P28" t="n">
-        <v>126.7869503557441</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.7869503557441</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
         <v>126.7869503557441</v>
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550336</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29694,25 +29694,25 @@
         <v>126.7869503557441</v>
       </c>
       <c r="K31" t="n">
-        <v>126.7869503557441</v>
+        <v>55.45886535850788</v>
       </c>
       <c r="L31" t="n">
         <v>126.7869503557441</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>126.7869503557441</v>
       </c>
-      <c r="N31" t="n">
+      <c r="P31" t="n">
         <v>126.7869503557441</v>
       </c>
-      <c r="O31" t="n">
-        <v>17.30689742566005</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
       <c r="Q31" t="n">
-        <v>38.15196793284785</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="R31" t="n">
         <v>126.7869503557441</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="C32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="D32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="E32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="F32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="G32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="H32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="I32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="K32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="L32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="M32" t="n">
-        <v>23.8920257647718</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>137.084479969859</v>
       </c>
       <c r="O32" t="n">
-        <v>137.0844799698588</v>
+        <v>23.89202576476799</v>
       </c>
       <c r="P32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="R32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="S32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="T32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="U32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="V32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="W32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="X32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="Y32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
     </row>
     <row r="33">
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>14.56549128550363</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="C34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="D34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="E34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="F34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="G34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="H34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="I34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="J34" t="n">
-        <v>59.456666199969</v>
+        <v>110.0343984032062</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>137.084479969859</v>
       </c>
       <c r="M34" t="n">
-        <v>137.0844799698588</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>12.42576427039229</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>137.0844799698588</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>137.084479969859</v>
       </c>
       <c r="R34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="S34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="T34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="U34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="V34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="W34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="X34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
     </row>
     <row r="35">
@@ -30007,13 +30007,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30022,13 +30022,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>40.58157162934941</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>166.1290651424569</v>
+        <v>40.58157162934918</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>166.1290651424569</v>
@@ -30071,13 +30071,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.73508319210941</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30247,28 +30247,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>40.5815716293493</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>116.9787331327012</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,7 +30350,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30420,10 +30420,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>45.56176619902594</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.83758476280077</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
         <v>148.0265635717656</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="C41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="D41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="E41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="F41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="G41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="H41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="I41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="J41" t="n">
-        <v>134.2731860038986</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>134.2731860038986</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>134.2731860038986</v>
+        <v>46.41730540591914</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.876023041125762</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="R41" t="n">
-        <v>134.2731860038986</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="T41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="U41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="V41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="W41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="X41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Y41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>14.56549128550373</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="C43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="D43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="E43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="F43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="G43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="H43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="I43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
@@ -30645,46 +30645,46 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>104.9056080357855</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>104.905608035786</v>
       </c>
       <c r="O43" t="n">
-        <v>134.2731860038986</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Q43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="R43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="S43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="T43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="U43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="V43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="W43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="X43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Y43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
     </row>
     <row r="44">
@@ -30694,46 +30694,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="C44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="D44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="E44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="F44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="G44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="H44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="I44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="J44" t="n">
-        <v>134.2731860038986</v>
+        <v>46.41730540591921</v>
       </c>
       <c r="K44" t="n">
-        <v>134.2731860038986</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="M44" t="n">
-        <v>1.876023041125904</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>134.2731860038986</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="T44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="U44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="V44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="W44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="X44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Y44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="C46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="D46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="E46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="F46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="G46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="H46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="I46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>104.9056080357861</v>
       </c>
       <c r="M46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>134.2731860038986</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>134.2731860038986</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>104.9056080357855</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="R46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="S46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="T46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="U46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="V46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="W46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="X46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Y46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
     </row>
   </sheetData>
@@ -34699,13 +34699,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>84.96686472055339</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2112790435232</v>
+        <v>239.6121113956073</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34781,22 +34781,22 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>353.5677178903741</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>485.5013706600321</v>
       </c>
       <c r="N3" t="n">
-        <v>399.5265948267422</v>
+        <v>485.5013706600321</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>397.2112790435232</v>
+        <v>239.6121113956073</v>
       </c>
       <c r="N5" t="n">
         <v>382.1528875633492</v>
@@ -34951,7 +34951,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>72.86234392385671</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35018,10 +35018,10 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>283.5422394900575</v>
       </c>
       <c r="M6" t="n">
-        <v>399.5265948267422</v>
+        <v>485.5013706600321</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>252.0720962387968</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
         <v>159.3652826117113</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>186.155967803972</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>355.9961978766761</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
         <v>464.8295322606797</v>
       </c>
       <c r="M11" t="n">
-        <v>482.4593840674082</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>467.400992587234</v>
       </c>
       <c r="O11" t="n">
         <v>308.0854388614484</v>
@@ -35428,10 +35428,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910353</v>
+        <v>23.69826186910358</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q12" t="n">
         <v>159.3652826117113</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823972</v>
+        <v>53.97349930823976</v>
       </c>
       <c r="K13" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926971</v>
       </c>
       <c r="L13" t="n">
         <v>215.0534780337234</v>
       </c>
       <c r="M13" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N13" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O13" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P13" t="n">
-        <v>177.0346945265297</v>
+        <v>177.0346945265298</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536091</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5660323684674</v>
+        <v>355.9961978766762</v>
       </c>
       <c r="L14" t="n">
         <v>351.3993667524709</v>
@@ -35656,19 +35656,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>467.400992587234</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O14" t="n">
-        <v>421.5156043696571</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>343.8916770799796</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>208.8162803430945</v>
+        <v>180.6342198587705</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910352</v>
+        <v>23.69826186910358</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.9734993082397</v>
+        <v>53.97349930823976</v>
       </c>
       <c r="K16" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926971</v>
       </c>
       <c r="L16" t="n">
         <v>215.0534780337234</v>
       </c>
       <c r="M16" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N16" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O16" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P16" t="n">
-        <v>177.0346945265297</v>
+        <v>177.0346945265293</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536149</v>
+        <v>75.27819757536091</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,22 +35890,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>514.1900121762243</v>
       </c>
       <c r="N17" t="n">
-        <v>422.7344591926985</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>474.2145040039053</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
         <v>396.5905767142278</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R17" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35972,7 +35972,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -36027,16 +36027,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.215064070153303</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I19" t="n">
-        <v>23.36805118910866</v>
+        <v>5.05975216734729</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.10250157069135</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>189.7045354284644</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36130,19 +36130,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O20" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
         <v>396.5905767142278</v>
       </c>
       <c r="Q20" t="n">
-        <v>135.9676864642354</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36206,7 +36206,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>489.93268031336</v>
+        <v>489.9326803133602</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36264,7 +36264,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36297,10 +36297,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.58311525926155</v>
+        <v>45.56176619902593</v>
       </c>
       <c r="R22" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>189.7045354284641</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
@@ -36370,16 +36370,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>348.6670104907978</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P23" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36446,7 +36446,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36495,19 +36495,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>15.6401410461626</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F25" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -36531,13 +36531,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
-        <v>63.604529018321</v>
+        <v>82.71364727271762</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.284368163872024</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.3302841557751</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>160.7305743402324</v>
       </c>
       <c r="L28" t="n">
-        <v>101.6233125255146</v>
+        <v>228.4102628812587</v>
       </c>
       <c r="M28" t="n">
-        <v>119.1853597248502</v>
+        <v>245.9723100805943</v>
       </c>
       <c r="N28" t="n">
-        <v>246.4054773755424</v>
+        <v>204.2557086012335</v>
       </c>
       <c r="O28" t="n">
-        <v>154.9170941420328</v>
+        <v>226.245179139269</v>
       </c>
       <c r="P28" t="n">
-        <v>190.3914793740651</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.63498242289624</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>67.3302841557751</v>
       </c>
       <c r="K31" t="n">
-        <v>160.7305743402324</v>
+        <v>89.40248934299618</v>
       </c>
       <c r="L31" t="n">
         <v>228.4102628812587</v>
       </c>
       <c r="M31" t="n">
-        <v>245.9723100805943</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N31" t="n">
-        <v>246.4054773755424</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O31" t="n">
-        <v>116.765126209185</v>
+        <v>226.245179139269</v>
       </c>
       <c r="P31" t="n">
-        <v>63.604529018321</v>
+        <v>190.3914793740651</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>88.63498242289624</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>209.8102822656221</v>
+        <v>209.8102822656223</v>
       </c>
       <c r="K32" t="n">
-        <v>379.6505123383263</v>
+        <v>379.6505123383264</v>
       </c>
       <c r="L32" t="n">
-        <v>488.4838467223298</v>
+        <v>488.4838467223299</v>
       </c>
       <c r="M32" t="n">
-        <v>421.103304808295</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>382.1528875633492</v>
+        <v>519.2373675332083</v>
       </c>
       <c r="O32" t="n">
-        <v>445.1699188313073</v>
+        <v>331.9774646262164</v>
       </c>
       <c r="P32" t="n">
-        <v>367.5459915416297</v>
+        <v>367.5459915416299</v>
       </c>
       <c r="Q32" t="n">
-        <v>232.4705948047447</v>
+        <v>232.4705948047448</v>
       </c>
       <c r="R32" t="n">
-        <v>47.35257633075366</v>
+        <v>47.35257633075381</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>50.57773220323724</v>
       </c>
       <c r="K34" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>238.7077924953736</v>
       </c>
       <c r="M34" t="n">
-        <v>256.269839694709</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>132.0442912901906</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>236.5427087533838</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>200.6890089881799</v>
+        <v>200.68900898818</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>98.93251203701114</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37318,13 +37318,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>348.6670104907978</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>396.5905767142278</v>
+        <v>271.0430832011201</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>76.39716150335175</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>165.8709765548032</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37482,10 +37482,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.58311525926155</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>391.9809383818202</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
@@ -37555,16 +37555,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675871</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P39" t="n">
         <v>305.147393207775</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37716,10 +37716,10 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>63.604529018321</v>
+        <v>109.1662952173469</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.68561682995292</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>206.9989882996618</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>376.839218372366</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>485.6725527563695</v>
+        <v>397.8166721583901</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>516.4260735672477</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>364.7346975756694</v>
       </c>
       <c r="Q41" t="n">
-        <v>97.26213787601162</v>
+        <v>229.6593008387844</v>
       </c>
       <c r="R41" t="n">
-        <v>44.54128236479337</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>305.1473932077745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
         <v>159.3652826117113</v>
@@ -37941,22 +37941,22 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>206.5289205613001</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
-        <v>119.1853597248502</v>
+        <v>253.4585457287488</v>
       </c>
       <c r="N43" t="n">
-        <v>119.6185270197983</v>
+        <v>224.5241350555844</v>
       </c>
       <c r="O43" t="n">
-        <v>233.7314147874235</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
         <v>197.8777150222195</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.12121807105071</v>
+        <v>96.12121807105068</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>206.9989882996618</v>
+        <v>119.1431077016825</v>
       </c>
       <c r="K44" t="n">
-        <v>376.839218372366</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>485.6725527563695</v>
+        <v>485.6725527563694</v>
       </c>
       <c r="M44" t="n">
-        <v>399.0873020846491</v>
+        <v>531.4844650474217</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>442.358624865347</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
@@ -38038,7 +38038,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>44.54128236479337</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
-        <v>369.5170153233491</v>
+        <v>369.5170153233492</v>
       </c>
       <c r="M45" t="n">
         <v>489.93268031336</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.9436239844883</v>
+        <v>168.2168099883868</v>
       </c>
       <c r="L46" t="n">
-        <v>101.6233125255146</v>
+        <v>206.5289205613007</v>
       </c>
       <c r="M46" t="n">
         <v>253.4585457287488</v>
@@ -38187,13 +38187,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>233.7314147874235</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
-        <v>197.8777150222195</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.75364010293769</v>
+        <v>96.12121807105068</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
